--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ047Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ047Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EDCB39-ED7E-4D93-AB6A-E107EDC34322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCE400-D14E-48F2-8F96-E92780E77DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增 C:異動 D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimal</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -453,65 +449,71 @@
   </si>
   <si>
     <t>38個中文字全形</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬二階段還款方案之階段註記=1,則本欄位為必填</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX.XX</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate DESC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukeyFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JcicZ047Log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxSeq</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey,TxSeq</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukeyEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1:屬二階段還款,第一階段
 2:屬二階段還款,第二階段
- :非屬二階段還款</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>屬二階段還款方案之階段註記=1,則本欄位為必填</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX.XX</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ukeyFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JcicZ047Log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxSeq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易序號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukey,TxSeq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ukeyEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+單格空白:非屬二階段還款</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1079,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1101,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>28</v>
@@ -1127,10 +1129,10 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1208,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
@@ -1227,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -1241,7 +1243,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1259,7 +1261,7 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="15" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1267,13 +1269,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="16">
         <v>3</v>
@@ -1286,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="16">
         <v>5</v>
@@ -1301,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1309,20 +1311,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="16">
         <v>9</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1330,20 +1332,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="16">
         <v>9</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1351,20 +1353,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="16">
         <v>9</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,10 +1374,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>26</v>
@@ -1385,7 +1387,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1393,20 +1395,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="16">
         <v>9</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1414,20 +1416,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="16">
         <v>9</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1435,10 +1437,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>26</v>
@@ -1448,7 +1450,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1456,20 +1458,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="16">
         <v>10</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1477,10 +1479,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>17</v>
@@ -1496,13 +1498,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="16">
         <v>8</v>
@@ -1515,13 +1517,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="16">
         <v>8</v>
@@ -1534,13 +1536,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="16">
         <v>8</v>
@@ -1553,13 +1555,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16">
         <v>8</v>
@@ -1572,13 +1574,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="16">
         <v>9</v>
@@ -1591,13 +1593,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="16">
         <v>20</v>
@@ -1610,20 +1612,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="E29" s="16">
         <v>38</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1631,20 +1633,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16">
         <v>1</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="15" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1652,10 +1654,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>26</v>
@@ -1665,7 +1667,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1673,10 +1675,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>26</v>
@@ -1692,13 +1694,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="16">
         <v>5</v>
@@ -1713,10 +1715,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>26</v>
@@ -1732,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>25</v>
@@ -1751,13 +1753,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="16">
         <v>8</v>
@@ -1770,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="E37" s="16">
         <v>8</v>
@@ -1789,13 +1791,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="E38" s="16">
         <v>6</v>
@@ -1808,13 +1810,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="16">
         <v>8</v>
@@ -1833,7 +1835,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="16">
         <v>6</v>
@@ -2208,24 +2210,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
